--- a/Relay and Pin Layout.xlsx
+++ b/Relay and Pin Layout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="165">
   <si>
     <t>Relay</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Aeration Out</t>
   </si>
   <si>
-    <t>Alarm Out</t>
-  </si>
-  <si>
     <t>Valve 5 Neutral Out</t>
   </si>
   <si>
@@ -500,6 +497,30 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>HLT Relay</t>
+  </si>
+  <si>
+    <t>BLK Relay</t>
+  </si>
+  <si>
+    <t>BLK SSR</t>
+  </si>
+  <si>
+    <t>HLT SSR</t>
+  </si>
+  <si>
+    <t>Alarm Out (to relay)</t>
+  </si>
+  <si>
+    <t>Wort Pump Positive</t>
+  </si>
+  <si>
+    <t>Water Pump Positive</t>
+  </si>
+  <si>
+    <t>Aeration Positive</t>
   </si>
 </sst>
 </file>
@@ -841,7 +862,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +906,9 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -899,6 +923,9 @@
         <f>D3+1</f>
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -913,6 +940,9 @@
         <f t="shared" ref="D5:D10" si="2">D4+1</f>
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -989,20 +1019,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Valve 9 Positive</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Valve 10 Positive</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1010,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,23 +1049,37 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f>"Valve "&amp;A12&amp;" Positive"</f>
+        <v>Valve 10 Positive</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"Valve "&amp;A11&amp;" Positive"</f>
+        <v>Valve 9 Positive</v>
       </c>
     </row>
   </sheetData>
@@ -1056,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1140,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AD1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -1244,7 +1280,7 @@
         <v>70</v>
       </c>
       <c r="R3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1254,7 +1290,7 @@
         <v>GPB0</v>
       </c>
       <c r="W3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y3">
         <f>Y4+1</f>
@@ -1264,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="AA3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1274,7 +1310,7 @@
         <v>GPB0</v>
       </c>
       <c r="AF3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH3">
         <f>AH4+1</f>
@@ -1284,7 +1320,7 @@
         <v>70</v>
       </c>
       <c r="AJ3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1334,7 +1370,7 @@
         <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U4">
         <f>U3+1</f>
@@ -1345,7 +1381,7 @@
         <v>GPB1</v>
       </c>
       <c r="W4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y4">
         <f t="shared" ref="Y4:Y15" si="4">Y5+1</f>
@@ -1355,7 +1391,7 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD4">
         <f>AD3+1</f>
@@ -1366,7 +1402,7 @@
         <v>GPB1</v>
       </c>
       <c r="AF4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH4">
         <f t="shared" ref="AH4:AH15" si="6">AH5+1</f>
@@ -1376,7 +1412,7 @@
         <v>71</v>
       </c>
       <c r="AJ4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1426,7 +1462,7 @@
         <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:U16" si="10">U4+1</f>
@@ -1437,7 +1473,7 @@
         <v>GPB2</v>
       </c>
       <c r="W5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y5">
         <f t="shared" si="4"/>
@@ -1447,7 +1483,7 @@
         <v>72</v>
       </c>
       <c r="AA5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD5">
         <f t="shared" ref="AD5:AD16" si="11">AD4+1</f>
@@ -1458,7 +1494,7 @@
         <v>GPB2</v>
       </c>
       <c r="AF5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH5">
         <f t="shared" si="6"/>
@@ -1468,7 +1504,7 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1518,7 +1554,7 @@
         <v>73</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U6">
         <f t="shared" si="10"/>
@@ -1529,7 +1565,7 @@
         <v>GPB3</v>
       </c>
       <c r="W6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y6">
         <f t="shared" si="4"/>
@@ -1539,7 +1575,7 @@
         <v>73</v>
       </c>
       <c r="AA6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD6">
         <f t="shared" si="11"/>
@@ -1550,7 +1586,7 @@
         <v>GPB3</v>
       </c>
       <c r="AF6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH6">
         <f t="shared" si="6"/>
@@ -1560,7 +1596,7 @@
         <v>73</v>
       </c>
       <c r="AJ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1609,6 +1645,9 @@
       <c r="Q7" t="s">
         <v>74</v>
       </c>
+      <c r="R7" t="s">
+        <v>100</v>
+      </c>
       <c r="U7">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -1618,7 +1657,7 @@
         <v>GPB4</v>
       </c>
       <c r="W7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y7">
         <f t="shared" si="4"/>
@@ -1628,7 +1667,7 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD7">
         <f t="shared" si="11"/>
@@ -1639,7 +1678,7 @@
         <v>GPB4</v>
       </c>
       <c r="AF7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH7">
         <f t="shared" si="6"/>
@@ -1649,7 +1688,7 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1677,7 +1716,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L8">
         <f t="shared" si="9"/>
@@ -1698,6 +1737,9 @@
       <c r="Q8" t="s">
         <v>75</v>
       </c>
+      <c r="R8" t="s">
+        <v>101</v>
+      </c>
       <c r="U8">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -1714,7 +1756,7 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD8">
         <f t="shared" si="11"/>
@@ -1725,7 +1767,7 @@
         <v>GPB5</v>
       </c>
       <c r="AF8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH8">
         <f t="shared" si="6"/>
@@ -1735,7 +1777,7 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1784,6 +1826,9 @@
       <c r="Q9" t="s">
         <v>76</v>
       </c>
+      <c r="R9" t="s">
+        <v>102</v>
+      </c>
       <c r="U9">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -1800,7 +1845,7 @@
         <v>76</v>
       </c>
       <c r="AA9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD9">
         <f t="shared" si="11"/>
@@ -1811,7 +1856,7 @@
         <v>GPB6</v>
       </c>
       <c r="AF9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH9">
         <f t="shared" si="6"/>
@@ -1821,7 +1866,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -1849,7 +1894,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="L10">
         <f t="shared" si="9"/>
@@ -1886,7 +1931,7 @@
         <v>77</v>
       </c>
       <c r="AA10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD10">
         <f t="shared" si="11"/>
@@ -1897,7 +1942,7 @@
         <v>GPB7</v>
       </c>
       <c r="AF10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH10">
         <f t="shared" si="6"/>
@@ -1907,7 +1952,7 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -1934,9 +1979,6 @@
       <c r="H11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
-        <v>102</v>
-      </c>
       <c r="L11">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1972,7 +2014,7 @@
         <v>81</v>
       </c>
       <c r="AA11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD11">
         <f t="shared" si="11"/>
@@ -1992,7 +2034,7 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2099,7 +2141,7 @@
         <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="L13">
         <f t="shared" si="9"/>
@@ -2178,7 +2220,7 @@
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L14">
         <f t="shared" si="9"/>
@@ -2266,7 +2308,7 @@
         <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L15">
         <f t="shared" si="9"/>
@@ -2452,7 +2494,7 @@
         <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2467,7 +2509,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19">
         <f t="shared" si="8"/>
@@ -2495,7 +2537,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20">
         <f t="shared" si="8"/>
@@ -2508,7 +2550,7 @@
         <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2536,7 +2578,7 @@
         <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,7 +2606,7 @@
         <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2619,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,27 +2674,27 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
         <v>152</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>153</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>154</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>155</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>156</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2673,7 +2715,7 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2688,13 +2730,13 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" t="s">
         <v>149</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>150</v>
-      </c>
-      <c r="L6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2709,10 +2751,10 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">

--- a/Relay and Pin Layout.xlsx
+++ b/Relay and Pin Layout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="170">
   <si>
     <t>Relay</t>
   </si>
@@ -358,18 +358,9 @@
     <t>Temp 1 SDI</t>
   </si>
   <si>
-    <t>Temp 1 CS2</t>
-  </si>
-  <si>
     <t>Temp 1 CS1 (HLT)</t>
   </si>
   <si>
-    <t>Temp 1 SDI (MLT)</t>
-  </si>
-  <si>
-    <t>Temp 1 CS (BLK)</t>
-  </si>
-  <si>
     <t>MCP23017-3</t>
   </si>
   <si>
@@ -451,12 +442,6 @@
     <t>BLK Flow Out</t>
   </si>
   <si>
-    <t>MCP2017-2 INTA</t>
-  </si>
-  <si>
-    <t>MCP2017-3 INTA (mirrored to INTB)</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -466,21 +451,6 @@
     <t>Dissolved O2 Probe</t>
   </si>
   <si>
-    <t>RPi TXD</t>
-  </si>
-  <si>
-    <t>RPi RXD</t>
-  </si>
-  <si>
-    <t>HLT Volume</t>
-  </si>
-  <si>
-    <t>MLT Volume</t>
-  </si>
-  <si>
-    <t>BLK Volume</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -521,6 +491,51 @@
   </si>
   <si>
     <t>Aeration Positive</t>
+  </si>
+  <si>
+    <t>MCP2017-2 INTA  (mirrored to INTB)</t>
+  </si>
+  <si>
+    <t>MCP2017-3 INTA</t>
+  </si>
+  <si>
+    <t>Temp 1 CS2 (MLT)</t>
+  </si>
+  <si>
+    <t>Temp 2 SDO</t>
+  </si>
+  <si>
+    <t>Temp 2 CS (BLK)</t>
+  </si>
+  <si>
+    <t>Temp 2 SCLK</t>
+  </si>
+  <si>
+    <t>Temp 2 SDI</t>
+  </si>
+  <si>
+    <t>RPi GPIO13</t>
+  </si>
+  <si>
+    <t>RPi GPIO19</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ADC</t>
   </si>
 </sst>
 </file>
@@ -564,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -572,13 +587,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,7 +878,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B12" si="0">"Valve "&amp;A4&amp;" Positive"</f>
+        <f t="shared" ref="B4:B10" si="0">"Valve "&amp;A4&amp;" Positive"</f>
         <v>Valve 2 Positive</v>
       </c>
       <c r="D4">
@@ -924,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS22"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,14 +1118,12 @@
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1154,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AD1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -1148,15 +1162,8 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1246,7 +1253,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F3">
@@ -1258,7 +1265,7 @@
       <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3">
@@ -1268,7 +1275,7 @@
         <f>"GPB"&amp;L3-1</f>
         <v>GPB0</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N3" s="5" t="str">
         <f>"Valve "&amp;L3&amp;" Positive Out"</f>
         <v>Valve 1 Positive Out</v>
       </c>
@@ -1279,7 +1286,7 @@
       <c r="Q3" t="s">
         <v>70</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="U3">
@@ -1289,8 +1296,8 @@
         <f>"GPB"&amp;U3-1</f>
         <v>GPB0</v>
       </c>
-      <c r="W3" t="s">
-        <v>107</v>
+      <c r="W3" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="Y3">
         <f>Y4+1</f>
@@ -1299,8 +1306,8 @@
       <c r="Z3" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" t="s">
-        <v>107</v>
+      <c r="AA3" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1310,7 +1317,7 @@
         <v>GPB0</v>
       </c>
       <c r="AF3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AH3">
         <f>AH4+1</f>
@@ -1319,11 +1326,11 @@
       <c r="AI3" t="s">
         <v>70</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+2</f>
         <v>3</v>
@@ -1334,7 +1341,7 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4">
@@ -1347,7 +1354,7 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L4">
@@ -1358,7 +1365,7 @@
         <f t="shared" ref="M4:M10" si="0">"GPB"&amp;L4-1</f>
         <v>GPB1</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4" s="5" t="str">
         <f t="shared" ref="N4:N10" si="1">"Valve "&amp;L4&amp;" Positive Out"</f>
         <v>Valve 2 Positive Out</v>
       </c>
@@ -1369,7 +1376,7 @@
       <c r="Q4" t="s">
         <v>71</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="5" t="s">
         <v>105</v>
       </c>
       <c r="U4">
@@ -1380,8 +1387,8 @@
         <f t="shared" ref="V4:V10" si="3">"GPB"&amp;U4-1</f>
         <v>GPB1</v>
       </c>
-      <c r="W4" t="s">
-        <v>111</v>
+      <c r="W4" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="Y4">
         <f t="shared" ref="Y4:Y15" si="4">Y5+1</f>
@@ -1390,8 +1397,8 @@
       <c r="Z4" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" t="s">
-        <v>113</v>
+      <c r="AA4" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="AD4">
         <f>AD3+1</f>
@@ -1402,7 +1409,7 @@
         <v>GPB1</v>
       </c>
       <c r="AF4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AH4">
         <f t="shared" ref="AH4:AH15" si="6">AH5+1</f>
@@ -1411,11 +1418,11 @@
       <c r="AI4" t="s">
         <v>71</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A22" si="7">A4+2</f>
         <v>5</v>
@@ -1426,7 +1433,7 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5">
@@ -1439,7 +1446,7 @@
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L5">
@@ -1450,7 +1457,7 @@
         <f t="shared" si="0"/>
         <v>GPB2</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Valve 3 Positive Out</v>
       </c>
@@ -1461,7 +1468,7 @@
       <c r="Q5" t="s">
         <v>72</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="5" t="s">
         <v>103</v>
       </c>
       <c r="U5">
@@ -1472,8 +1479,8 @@
         <f t="shared" si="3"/>
         <v>GPB2</v>
       </c>
-      <c r="W5" t="s">
-        <v>108</v>
+      <c r="W5" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="Y5">
         <f t="shared" si="4"/>
@@ -1482,8 +1489,8 @@
       <c r="Z5" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" t="s">
-        <v>108</v>
+      <c r="AA5" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="AD5">
         <f t="shared" ref="AD5:AD16" si="11">AD4+1</f>
@@ -1494,7 +1501,7 @@
         <v>GPB2</v>
       </c>
       <c r="AF5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="AH5">
         <f t="shared" si="6"/>
@@ -1503,11 +1510,11 @@
       <c r="AI5" t="s">
         <v>72</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -1518,7 +1525,7 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F6">
@@ -1531,7 +1538,7 @@
       <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>98</v>
       </c>
       <c r="L6">
@@ -1542,7 +1549,7 @@
         <f t="shared" si="0"/>
         <v>GPB3</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Valve 4 Positive Out</v>
       </c>
@@ -1553,7 +1560,7 @@
       <c r="Q6" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="6" t="s">
         <v>106</v>
       </c>
       <c r="U6">
@@ -1564,8 +1571,8 @@
         <f t="shared" si="3"/>
         <v>GPB3</v>
       </c>
-      <c r="W6" t="s">
-        <v>112</v>
+      <c r="W6" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="Y6">
         <f t="shared" si="4"/>
@@ -1574,8 +1581,8 @@
       <c r="Z6" t="s">
         <v>73</v>
       </c>
-      <c r="AA6" t="s">
-        <v>109</v>
+      <c r="AA6" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="AD6">
         <f t="shared" si="11"/>
@@ -1586,7 +1593,7 @@
         <v>GPB3</v>
       </c>
       <c r="AF6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AH6">
         <f t="shared" si="6"/>
@@ -1595,11 +1602,11 @@
       <c r="AI6" t="s">
         <v>73</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -1610,7 +1617,7 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7">
@@ -1623,7 +1630,7 @@
       <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>99</v>
       </c>
       <c r="L7">
@@ -1634,7 +1641,7 @@
         <f t="shared" si="0"/>
         <v>GPB4</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Valve 5 Positive Out</v>
       </c>
@@ -1645,7 +1652,7 @@
       <c r="Q7" t="s">
         <v>74</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="5" t="s">
         <v>100</v>
       </c>
       <c r="U7">
@@ -1656,8 +1663,8 @@
         <f t="shared" si="3"/>
         <v>GPB4</v>
       </c>
-      <c r="W7" t="s">
-        <v>110</v>
+      <c r="W7" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="Y7">
         <f t="shared" si="4"/>
@@ -1666,8 +1673,8 @@
       <c r="Z7" t="s">
         <v>74</v>
       </c>
-      <c r="AA7" t="s">
-        <v>131</v>
+      <c r="AA7" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="AD7">
         <f t="shared" si="11"/>
@@ -1678,7 +1685,7 @@
         <v>GPB4</v>
       </c>
       <c r="AF7" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="AH7">
         <f t="shared" si="6"/>
@@ -1687,11 +1694,11 @@
       <c r="AI7" t="s">
         <v>74</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -1702,7 +1709,7 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F8">
@@ -1715,8 +1722,8 @@
       <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" t="s">
-        <v>160</v>
+      <c r="I8" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="L8">
         <f t="shared" si="9"/>
@@ -1726,7 +1733,7 @@
         <f t="shared" si="0"/>
         <v>GPB5</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Valve 6 Positive Out</v>
       </c>
@@ -1737,7 +1744,7 @@
       <c r="Q8" t="s">
         <v>75</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="5" t="s">
         <v>101</v>
       </c>
       <c r="U8">
@@ -1748,6 +1755,9 @@
         <f t="shared" si="3"/>
         <v>GPB5</v>
       </c>
+      <c r="W8" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="Y8">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1755,8 +1765,8 @@
       <c r="Z8" t="s">
         <v>75</v>
       </c>
-      <c r="AA8" t="s">
-        <v>132</v>
+      <c r="AA8" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="AD8">
         <f t="shared" si="11"/>
@@ -1766,9 +1776,6 @@
         <f t="shared" si="5"/>
         <v>GPB5</v>
       </c>
-      <c r="AF8" t="s">
-        <v>120</v>
-      </c>
       <c r="AH8">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -1776,11 +1783,11 @@
       <c r="AI8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -1791,7 +1798,7 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F9">
@@ -1804,7 +1811,7 @@
       <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L9">
@@ -1815,7 +1822,7 @@
         <f t="shared" si="0"/>
         <v>GPB6</v>
       </c>
-      <c r="N9" t="str">
+      <c r="N9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Valve 7 Positive Out</v>
       </c>
@@ -1826,7 +1833,7 @@
       <c r="Q9" t="s">
         <v>76</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="5" t="s">
         <v>102</v>
       </c>
       <c r="U9">
@@ -1837,6 +1844,9 @@
         <f t="shared" si="3"/>
         <v>GPB6</v>
       </c>
+      <c r="W9" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="Y9">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1844,8 +1854,8 @@
       <c r="Z9" t="s">
         <v>76</v>
       </c>
-      <c r="AA9" t="s">
-        <v>133</v>
+      <c r="AA9" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="AD9">
         <f t="shared" si="11"/>
@@ -1855,9 +1865,6 @@
         <f t="shared" si="5"/>
         <v>GPB6</v>
       </c>
-      <c r="AF9" t="s">
-        <v>121</v>
-      </c>
       <c r="AH9">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -1865,11 +1872,11 @@
       <c r="AI9" t="s">
         <v>76</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="7"/>
         <v>15</v>
@@ -1880,7 +1887,7 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F10">
@@ -1893,8 +1900,8 @@
       <c r="H10" t="s">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
-        <v>159</v>
+      <c r="I10" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="L10">
         <f t="shared" si="9"/>
@@ -1904,7 +1911,7 @@
         <f t="shared" si="0"/>
         <v>GPB7</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Valve 8 Positive Out</v>
       </c>
@@ -1923,6 +1930,9 @@
         <f t="shared" si="3"/>
         <v>GPB7</v>
       </c>
+      <c r="W10" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="Y10">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1930,8 +1940,8 @@
       <c r="Z10" t="s">
         <v>77</v>
       </c>
-      <c r="AA10" t="s">
-        <v>134</v>
+      <c r="AA10" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AD10">
         <f t="shared" si="11"/>
@@ -1941,9 +1951,6 @@
         <f t="shared" si="5"/>
         <v>GPB7</v>
       </c>
-      <c r="AF10" t="s">
-        <v>122</v>
-      </c>
       <c r="AH10">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -1951,11 +1958,11 @@
       <c r="AI10" t="s">
         <v>77</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="7"/>
         <v>17</v>
@@ -1966,7 +1973,7 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F11">
@@ -1979,6 +1986,9 @@
       <c r="H11" t="s">
         <v>61</v>
       </c>
+      <c r="K11" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="L11">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1986,7 +1996,7 @@
       <c r="M11" t="s">
         <v>78</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="P11">
@@ -1996,6 +2006,12 @@
       <c r="Q11" t="s">
         <v>81</v>
       </c>
+      <c r="S11" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="U11">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -2003,7 +2019,7 @@
       <c r="V11" t="s">
         <v>78</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Y11">
@@ -2013,8 +2029,14 @@
       <c r="Z11" t="s">
         <v>81</v>
       </c>
-      <c r="AA11" t="s">
-        <v>146</v>
+      <c r="AA11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="AD11">
         <f t="shared" si="11"/>
@@ -2023,7 +2045,7 @@
       <c r="AE11" t="s">
         <v>78</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AH11">
@@ -2033,11 +2055,14 @@
       <c r="AI11" t="s">
         <v>81</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="7"/>
         <v>19</v>
@@ -2048,7 +2073,7 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F12">
@@ -2061,8 +2086,11 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="L12">
         <f t="shared" si="9"/>
@@ -2071,7 +2099,7 @@
       <c r="M12" t="s">
         <v>79</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P12">
@@ -2081,6 +2109,12 @@
       <c r="Q12" t="s">
         <v>82</v>
       </c>
+      <c r="S12" t="s">
+        <v>165</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="U12">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -2088,7 +2122,7 @@
       <c r="V12" t="s">
         <v>79</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Y12">
@@ -2098,6 +2132,12 @@
       <c r="Z12" t="s">
         <v>82</v>
       </c>
+      <c r="AB12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="AD12">
         <f t="shared" si="11"/>
         <v>10</v>
@@ -2105,7 +2145,7 @@
       <c r="AE12" t="s">
         <v>79</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AH12">
@@ -2115,8 +2155,11 @@
       <c r="AI12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AL12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="7"/>
         <v>21</v>
@@ -2127,7 +2170,7 @@
       <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F13">
@@ -2140,8 +2183,11 @@
       <c r="H13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" t="s">
-        <v>161</v>
+      <c r="I13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="L13">
         <f t="shared" si="9"/>
@@ -2157,8 +2203,14 @@
       <c r="Q13" t="s">
         <v>83</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="U13">
         <f t="shared" si="10"/>
@@ -2174,8 +2226,14 @@
       <c r="Z13" t="s">
         <v>83</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="AD13">
         <f t="shared" si="11"/>
@@ -2191,11 +2249,14 @@
       <c r="AI13" t="s">
         <v>83</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AL13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="7"/>
         <v>23</v>
@@ -2206,7 +2267,7 @@
       <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>96</v>
       </c>
       <c r="F14">
@@ -2219,8 +2280,11 @@
       <c r="H14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
-        <v>135</v>
+      <c r="I14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="L14">
         <f t="shared" si="9"/>
@@ -2229,7 +2293,7 @@
       <c r="M14" t="s">
         <v>13</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="P14">
@@ -2239,8 +2303,14 @@
       <c r="Q14" t="s">
         <v>84</v>
       </c>
-      <c r="R14" t="s">
-        <v>15</v>
+      <c r="R14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" t="s">
+        <v>167</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="U14">
         <f t="shared" si="10"/>
@@ -2249,7 +2319,7 @@
       <c r="V14" t="s">
         <v>13</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Y14">
@@ -2259,8 +2329,14 @@
       <c r="Z14" t="s">
         <v>84</v>
       </c>
-      <c r="AA14" t="s">
-        <v>15</v>
+      <c r="AA14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="AD14">
         <f t="shared" si="11"/>
@@ -2269,7 +2345,7 @@
       <c r="AE14" t="s">
         <v>13</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AH14">
@@ -2279,11 +2355,14 @@
       <c r="AI14" t="s">
         <v>84</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="7"/>
         <v>25</v>
@@ -2294,7 +2373,7 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F15">
@@ -2307,8 +2386,11 @@
       <c r="H15" t="s">
         <v>64</v>
       </c>
-      <c r="I15" t="s">
-        <v>136</v>
+      <c r="I15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="L15">
         <f t="shared" si="9"/>
@@ -2317,7 +2399,7 @@
       <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P15">
@@ -2327,8 +2409,14 @@
       <c r="Q15" t="s">
         <v>85</v>
       </c>
-      <c r="R15" t="s">
-        <v>15</v>
+      <c r="R15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="U15">
         <f t="shared" si="10"/>
@@ -2337,7 +2425,7 @@
       <c r="V15" t="s">
         <v>12</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Y15">
@@ -2347,8 +2435,14 @@
       <c r="Z15" t="s">
         <v>85</v>
       </c>
-      <c r="AA15" t="s">
-        <v>15</v>
+      <c r="AA15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="AD15">
         <f t="shared" si="11"/>
@@ -2357,7 +2451,7 @@
       <c r="AE15" t="s">
         <v>12</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AF15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AH15">
@@ -2367,11 +2461,14 @@
       <c r="AI15" t="s">
         <v>85</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="7"/>
         <v>27</v>
@@ -2392,6 +2489,9 @@
       <c r="H16" t="s">
         <v>51</v>
       </c>
+      <c r="K16" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="L16">
         <f t="shared" si="9"/>
         <v>14</v>
@@ -2405,8 +2505,14 @@
       <c r="Q16" t="s">
         <v>86</v>
       </c>
-      <c r="R16" t="s">
-        <v>15</v>
+      <c r="R16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" t="s">
+        <v>168</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="U16">
         <f t="shared" si="10"/>
@@ -2421,8 +2527,14 @@
       <c r="Z16" t="s">
         <v>86</v>
       </c>
-      <c r="AA16" t="s">
-        <v>10</v>
+      <c r="AA16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="AD16">
         <f t="shared" si="11"/>
@@ -2437,8 +2549,11 @@
       <c r="AI16" t="s">
         <v>86</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>15</v>
+      <c r="AJ16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2452,7 +2567,7 @@
       <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F17">
@@ -2480,7 +2595,7 @@
       <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F18">
@@ -2493,8 +2608,8 @@
       <c r="H18" t="s">
         <v>65</v>
       </c>
-      <c r="I18" t="s">
-        <v>137</v>
+      <c r="I18" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,8 +2623,8 @@
       <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>141</v>
+      <c r="D19" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="F19">
         <f t="shared" si="8"/>
@@ -2536,8 +2651,8 @@
       <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>142</v>
+      <c r="D20" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="F20">
         <f t="shared" si="8"/>
@@ -2549,8 +2664,8 @@
       <c r="H20" t="s">
         <v>66</v>
       </c>
-      <c r="I20" t="s">
-        <v>138</v>
+      <c r="I20" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,7 +2679,7 @@
       <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F21">
@@ -2577,8 +2692,8 @@
       <c r="H21" t="s">
         <v>67</v>
       </c>
-      <c r="I21" t="s">
-        <v>139</v>
+      <c r="I21" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2592,7 +2707,7 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F22">
@@ -2605,12 +2720,13 @@
       <c r="H22" t="s">
         <v>68</v>
       </c>
-      <c r="I22" t="s">
-        <v>140</v>
+      <c r="I22" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2619,7 +2735,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H12" sqref="A8:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,37 +2790,37 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>143</v>
+      <c r="A2" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <f>A2+10</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <f t="shared" ref="A4:A9" si="1">A3+10</f>
         <v>20</v>
       </c>
@@ -2715,50 +2831,44 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
